--- a/Data/phenotypic data/RawData/2012 Data/BogUpper5-R8.xlsx
+++ b/Data/phenotypic data/RawData/2012 Data/BogUpper5-R8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="220" windowWidth="28760" windowHeight="18020"/>
+    <workbookView xWindow="160" yWindow="220" windowWidth="25440" windowHeight="18020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4973" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4973" uniqueCount="305">
   <si>
     <t>Date measured:</t>
   </si>
@@ -662,9 +662,6 @@
     <t>9.855*</t>
   </si>
   <si>
-    <t>9.156*</t>
-  </si>
-  <si>
     <t>2.4/2.6</t>
   </si>
   <si>
@@ -713,9 +710,6 @@
     <t>4.145*</t>
   </si>
   <si>
-    <t>22.822.3</t>
-  </si>
-  <si>
     <t>1.917*</t>
   </si>
   <si>
@@ -755,9 +749,6 @@
     <t>6.236*</t>
   </si>
   <si>
-    <t>7.720*</t>
-  </si>
-  <si>
     <t>8.507*</t>
   </si>
   <si>
@@ -774,9 +765,6 @@
   </si>
   <si>
     <t>3.337*</t>
-  </si>
-  <si>
-    <t>2.99*1</t>
   </si>
   <si>
     <t>2.994*</t>
@@ -942,6 +930,24 @@
   </si>
   <si>
     <t>**3</t>
+  </si>
+  <si>
+    <t>F/PRO</t>
+  </si>
+  <si>
+    <t>FUR</t>
+  </si>
+  <si>
+    <t>8.156*</t>
+  </si>
+  <si>
+    <t>3*</t>
+  </si>
+  <si>
+    <t>8.407*</t>
+  </si>
+  <si>
+    <t>4.720*</t>
   </si>
 </sst>
 </file>
@@ -1594,12 +1600,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
-      <selection activeCell="W788" sqref="W788"/>
+    <sheetView tabSelected="1" topLeftCell="A757" workbookViewId="0">
+      <selection activeCell="V784" sqref="V784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" customWidth="1"/>
+    <col min="15" max="15" width="6.5" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" customWidth="1"/>
+    <col min="17" max="17" width="6.5" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" customWidth="1"/>
+    <col min="19" max="19" width="7.83203125" customWidth="1"/>
+    <col min="20" max="20" width="5.83203125" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" customWidth="1"/>
+    <col min="22" max="22" width="5.1640625" customWidth="1"/>
     <col min="23" max="23" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1833,7 +1860,7 @@
         <v>43</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2042,7 +2069,7 @@
         <v>14</v>
       </c>
       <c r="M11" s="34">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="N11" s="35">
         <v>2.7</v>
@@ -4507,7 +4534,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" s="22">
         <v>0</v>
@@ -4578,7 +4605,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="22">
         <v>0</v>
@@ -5849,7 +5876,7 @@
         <v>17.8</v>
       </c>
       <c r="L74" s="34">
-        <v>145.75</v>
+        <v>15.75</v>
       </c>
       <c r="M74" s="34">
         <v>1.8720000000000001</v>
@@ -6145,7 +6172,7 @@
         <v>109</v>
       </c>
       <c r="W79" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6713,7 +6740,7 @@
         <v>110</v>
       </c>
       <c r="W87" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7075,7 +7102,7 @@
         <v>4.7E-2</v>
       </c>
       <c r="K96" s="34">
-        <v>2.3199999999999998</v>
+        <v>23.2</v>
       </c>
       <c r="L96" s="34">
         <v>16.600000000000001</v>
@@ -7155,7 +7182,7 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="N97" s="35">
-        <v>23</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O97" s="37" t="s">
         <v>38</v>
@@ -7166,8 +7193,8 @@
       <c r="Q97" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="R97" s="22" t="s">
-        <v>129</v>
+      <c r="R97" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="S97" s="34">
         <v>1</v>
@@ -8057,7 +8084,7 @@
         <v>2.4319999999999999</v>
       </c>
       <c r="N111" s="35">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O111" s="37" t="s">
         <v>38</v>
@@ -9020,7 +9047,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="M128" s="34">
-        <v>2.819</v>
+        <v>2.74</v>
       </c>
       <c r="N128" s="35">
         <v>2.5</v>
@@ -9091,7 +9118,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="M129" s="34">
-        <v>2.74</v>
+        <v>2.3809999999999998</v>
       </c>
       <c r="N129" s="35">
         <v>2.7</v>
@@ -9162,7 +9189,7 @@
         <v>15.4</v>
       </c>
       <c r="M130" s="34">
-        <v>2.3809999999999998</v>
+        <v>1.59</v>
       </c>
       <c r="N130" s="35">
         <v>2.4</v>
@@ -9233,7 +9260,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="M131" s="34">
-        <v>1.59</v>
+        <v>2.5190000000000001</v>
       </c>
       <c r="N131" s="35">
         <v>2.4</v>
@@ -9304,7 +9331,7 @@
         <v>17.7</v>
       </c>
       <c r="M132" s="34">
-        <v>2.5190000000000001</v>
+        <v>2.637</v>
       </c>
       <c r="N132" s="35">
         <v>2.5</v>
@@ -10918,7 +10945,7 @@
         <v>150</v>
       </c>
       <c r="W159" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -10953,7 +10980,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K160" s="34">
-        <v>205</v>
+        <v>20.5</v>
       </c>
       <c r="L160" s="34">
         <v>15.6</v>
@@ -12555,7 +12582,7 @@
         <v>103</v>
       </c>
       <c r="Q187" s="11" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="R187" s="11" t="s">
         <v>129</v>
@@ -13262,7 +13289,7 @@
         <v>150</v>
       </c>
       <c r="W198" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -13528,7 +13555,7 @@
         <v>39</v>
       </c>
       <c r="Q202" s="11" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="R202" s="11" t="s">
         <v>130</v>
@@ -13599,7 +13626,7 @@
         <v>103</v>
       </c>
       <c r="Q203" s="11" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="R203" s="11" t="s">
         <v>130</v>
@@ -13670,7 +13697,7 @@
         <v>103</v>
       </c>
       <c r="Q204" s="11" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="R204" s="11" t="s">
         <v>129</v>
@@ -13688,7 +13715,7 @@
         <v>150</v>
       </c>
       <c r="W204" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="15">
@@ -14195,7 +14222,7 @@
         <v>18.3</v>
       </c>
       <c r="L215" s="34">
-        <v>17.899999999999999</v>
+        <v>14.9</v>
       </c>
       <c r="M215" s="34">
         <v>1.528</v>
@@ -14334,7 +14361,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="K217" s="34">
-        <v>16.2</v>
+        <v>26.2</v>
       </c>
       <c r="L217" s="34">
         <v>16.2</v>
@@ -14405,7 +14432,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="K218" s="34">
-        <v>16.3</v>
+        <v>26.3</v>
       </c>
       <c r="L218" s="34">
         <v>17.5</v>
@@ -14813,7 +14840,7 @@
         <v>25.9</v>
       </c>
       <c r="L225" s="34">
-        <v>15.7</v>
+        <v>15.1</v>
       </c>
       <c r="M225" s="34">
         <v>2.4540000000000002</v>
@@ -14881,7 +14908,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="K226" s="34">
-        <v>2.68</v>
+        <v>26.8</v>
       </c>
       <c r="L226" s="34">
         <v>17.100000000000001</v>
@@ -15023,7 +15050,7 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="K228" s="34">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="L228" s="34">
         <v>18.5</v>
@@ -15041,7 +15068,7 @@
         <v>103</v>
       </c>
       <c r="Q228" s="11" t="s">
-        <v>129</v>
+        <v>300</v>
       </c>
       <c r="R228" s="11" t="s">
         <v>130</v>
@@ -15156,7 +15183,7 @@
         <v>4.891</v>
       </c>
       <c r="H230" s="22">
-        <v>29</v>
+        <v>2.9</v>
       </c>
       <c r="I230" s="22">
         <v>0</v>
@@ -16252,13 +16279,13 @@
         <v>0</v>
       </c>
       <c r="D249" s="22">
+        <v>0</v>
+      </c>
+      <c r="E249" s="11">
+        <v>0</v>
+      </c>
+      <c r="F249" s="22">
         <v>3</v>
-      </c>
-      <c r="E249" s="11">
-        <v>0</v>
-      </c>
-      <c r="F249" s="22">
-        <v>0</v>
       </c>
       <c r="G249" s="22">
         <v>6.1289999999999996</v>
@@ -16323,13 +16350,13 @@
         <v>0</v>
       </c>
       <c r="D250" s="22">
+        <v>0</v>
+      </c>
+      <c r="E250" s="11">
+        <v>0</v>
+      </c>
+      <c r="F250" s="22">
         <v>3</v>
-      </c>
-      <c r="E250" s="11">
-        <v>0</v>
-      </c>
-      <c r="F250" s="22">
-        <v>0</v>
       </c>
       <c r="G250" s="22">
         <v>5.7779999999999996</v>
@@ -16924,7 +16951,7 @@
         <v>23</v>
       </c>
       <c r="V259" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W259">
         <v>1</v>
@@ -18392,7 +18419,7 @@
         <v>0</v>
       </c>
       <c r="G285" s="22">
-        <v>22.6</v>
+        <v>2.6</v>
       </c>
       <c r="H285" s="22">
         <v>3.1</v>
@@ -19409,7 +19436,7 @@
         <v>150</v>
       </c>
       <c r="W302" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -19480,7 +19507,7 @@
         <v>150</v>
       </c>
       <c r="W303" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -20169,7 +20196,7 @@
         <v>150</v>
       </c>
       <c r="W314" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -20993,7 +21020,7 @@
         <v>150</v>
       </c>
       <c r="W329" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -21776,7 +21803,7 @@
         <v>2</v>
       </c>
       <c r="G342" s="22">
-        <v>3.109</v>
+        <v>6.109</v>
       </c>
       <c r="H342" s="22">
         <v>2.8</v>
@@ -21966,7 +21993,7 @@
         <v>150</v>
       </c>
       <c r="W344" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -24662,7 +24689,7 @@
         <v>150</v>
       </c>
       <c r="W390" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="391" spans="1:23">
@@ -24804,7 +24831,7 @@
         <v>151</v>
       </c>
       <c r="W392" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="393" spans="1:23">
@@ -26672,7 +26699,7 @@
         <v>151</v>
       </c>
       <c r="W423" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="424" spans="1:23">
@@ -28761,7 +28788,7 @@
         <v>3.5</v>
       </c>
       <c r="I459" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J459" s="34">
         <v>0.106</v>
@@ -28897,13 +28924,13 @@
         <v>0</v>
       </c>
       <c r="G461" s="11" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="H461" s="22">
         <v>3.1</v>
       </c>
       <c r="I461" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J461" s="34">
         <v>0.17100000000000001</v>
@@ -29653,7 +29680,7 @@
         <v>1.7589999999999999</v>
       </c>
       <c r="H475" s="22">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="I475" s="22">
         <v>0</v>
@@ -29878,7 +29905,7 @@
         <v>19.8</v>
       </c>
       <c r="L478" s="34">
-        <v>217.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="M478" s="34">
         <v>2.3420000000000001</v>
@@ -30339,7 +30366,7 @@
         <v>1</v>
       </c>
       <c r="G486" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H486" s="22">
         <v>3.4</v>
@@ -30552,7 +30579,7 @@
         <v>0</v>
       </c>
       <c r="G489" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H489" s="22">
         <v>3.6</v>
@@ -30765,7 +30792,7 @@
         <v>0</v>
       </c>
       <c r="G492" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H492" s="22">
         <v>3.1</v>
@@ -30783,7 +30810,7 @@
         <v>15.1</v>
       </c>
       <c r="M492" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N492" s="35">
         <v>2.6</v>
@@ -30836,7 +30863,7 @@
         <v>1</v>
       </c>
       <c r="G493" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H493" s="22">
         <v>2.2999999999999998</v>
@@ -30854,7 +30881,7 @@
         <v>14.9</v>
       </c>
       <c r="M493" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N493" s="35">
         <v>2.9</v>
@@ -30904,7 +30931,7 @@
         <v>0</v>
       </c>
       <c r="F494" s="22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G494" s="22">
         <v>2.2869999999999999</v>
@@ -31234,7 +31261,7 @@
         <v>0</v>
       </c>
       <c r="G502" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H502" s="22">
         <v>0.2</v>
@@ -31252,7 +31279,7 @@
         <v>15</v>
       </c>
       <c r="M502" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N502" s="35">
         <v>2.9</v>
@@ -31447,7 +31474,7 @@
         <v>2</v>
       </c>
       <c r="G505" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H505" s="22">
         <v>3.4</v>
@@ -31465,7 +31492,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="M505" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N505" s="35">
         <v>3</v>
@@ -31518,7 +31545,7 @@
         <v>2</v>
       </c>
       <c r="G506" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H506" s="22">
         <v>0.4</v>
@@ -31536,7 +31563,7 @@
         <v>15</v>
       </c>
       <c r="M506" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N506" s="35">
         <v>2.2000000000000002</v>
@@ -31660,7 +31687,7 @@
         <v>0</v>
       </c>
       <c r="G508" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H508" s="22">
         <v>5.0999999999999996</v>
@@ -31678,7 +31705,7 @@
         <v>19.2</v>
       </c>
       <c r="M508" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N508" s="35">
         <v>2.8</v>
@@ -31873,7 +31900,7 @@
         <v>0</v>
       </c>
       <c r="G511" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H511" s="22">
         <v>3.2</v>
@@ -31891,7 +31918,7 @@
         <v>18.2</v>
       </c>
       <c r="M511" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N511" s="35">
         <v>2.9</v>
@@ -32216,8 +32243,8 @@
       <c r="J517" s="34">
         <v>0.11</v>
       </c>
-      <c r="K517" s="16" t="s">
-        <v>226</v>
+      <c r="K517" s="16">
+        <v>22.3</v>
       </c>
       <c r="L517" s="34">
         <v>17.7</v>
@@ -32253,7 +32280,7 @@
         <v>150</v>
       </c>
       <c r="W517" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="518" spans="1:23">
@@ -32489,7 +32516,7 @@
         <v>1</v>
       </c>
       <c r="G521" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H521" s="22">
         <v>2.7</v>
@@ -32507,7 +32534,7 @@
         <v>14.9</v>
       </c>
       <c r="M521" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N521" s="35">
         <v>2.4</v>
@@ -32560,7 +32587,7 @@
         <v>0</v>
       </c>
       <c r="G522" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H522" s="22">
         <v>7.1</v>
@@ -33032,7 +33059,7 @@
         <v>5.4859999999999998</v>
       </c>
       <c r="H532" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I532" s="22">
         <v>0</v>
@@ -33077,7 +33104,7 @@
         <v>150</v>
       </c>
       <c r="W532" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="533" spans="1:23">
@@ -33171,7 +33198,7 @@
         <v>1</v>
       </c>
       <c r="G534" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H534" s="22">
         <v>3.6</v>
@@ -33189,7 +33216,7 @@
         <v>17.3</v>
       </c>
       <c r="M534" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N534" s="35">
         <v>2.5</v>
@@ -33232,8 +33259,8 @@
       <c r="C535" s="22">
         <v>0</v>
       </c>
-      <c r="D535" s="22">
-        <v>3</v>
+      <c r="D535" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="E535" s="22">
         <v>0</v>
@@ -33241,8 +33268,8 @@
       <c r="F535" s="22">
         <v>0</v>
       </c>
-      <c r="G535" s="22">
-        <v>8.407</v>
+      <c r="G535" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="H535" s="22">
         <v>4.3</v>
@@ -33290,7 +33317,7 @@
         <v>151</v>
       </c>
       <c r="W535" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="536" spans="1:23">
@@ -33455,7 +33482,7 @@
         <v>0</v>
       </c>
       <c r="G538" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H538" s="22">
         <v>3.5</v>
@@ -33597,7 +33624,7 @@
         <v>0</v>
       </c>
       <c r="G540" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H540" s="22">
         <v>4.4000000000000004</v>
@@ -33837,7 +33864,7 @@
         <v>151</v>
       </c>
       <c r="W544" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="545" spans="1:23">
@@ -33860,7 +33887,7 @@
         <v>1</v>
       </c>
       <c r="G545" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H545" s="22">
         <v>1.1000000000000001</v>
@@ -34008,7 +34035,7 @@
         <v>5.2</v>
       </c>
       <c r="I547" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J547" s="34">
         <v>0.17299999999999999</v>
@@ -34050,7 +34077,7 @@
         <v>150</v>
       </c>
       <c r="W547" s="16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="548" spans="1:23">
@@ -34286,7 +34313,7 @@
         <v>0</v>
       </c>
       <c r="G551" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H551" s="22">
         <v>4.5</v>
@@ -34357,7 +34384,7 @@
         <v>0</v>
       </c>
       <c r="G552" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H552" s="22">
         <v>4.7</v>
@@ -35538,7 +35565,7 @@
         <v>24</v>
       </c>
       <c r="P573" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q573" s="11" t="s">
         <v>130</v>
@@ -35664,7 +35691,7 @@
         <v>20.6</v>
       </c>
       <c r="L575" s="34">
-        <v>19.399999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="M575" s="34">
         <v>2.3109999999999999</v>
@@ -35814,7 +35841,7 @@
         <v>6</v>
       </c>
       <c r="P577" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q577" s="11" t="s">
         <v>129</v>
@@ -35871,10 +35898,10 @@
         <v>22.8</v>
       </c>
       <c r="L578" s="34">
-        <v>18.399999999999999</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="M578" s="34">
-        <v>2.4289999999999998</v>
+        <v>2.9289999999999998</v>
       </c>
       <c r="N578" s="35">
         <v>2.7</v>
@@ -35952,7 +35979,7 @@
         <v>6</v>
       </c>
       <c r="P579" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q579" s="11" t="s">
         <v>130</v>
@@ -36461,7 +36488,7 @@
         <v>0</v>
       </c>
       <c r="G590" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H590" s="22">
         <v>0.3</v>
@@ -36479,7 +36506,7 @@
         <v>12.2</v>
       </c>
       <c r="M590" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N590" s="35">
         <v>2.5</v>
@@ -36816,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="G595" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H595" s="22">
         <v>1.9</v>
@@ -36834,7 +36861,7 @@
         <v>18.7</v>
       </c>
       <c r="M595" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N595" s="35">
         <v>2.5</v>
@@ -37038,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="J598" s="16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K598" s="34">
         <v>23.8</v>
@@ -37292,7 +37319,7 @@
         <v>1</v>
       </c>
       <c r="G603" s="11" t="s">
-        <v>240</v>
+        <v>304</v>
       </c>
       <c r="H603" s="22">
         <v>4.0999999999999996</v>
@@ -37363,7 +37390,7 @@
         <v>1</v>
       </c>
       <c r="G604" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H604" s="22">
         <v>3.4</v>
@@ -37451,8 +37478,8 @@
       <c r="L605" s="34">
         <v>18.7</v>
       </c>
-      <c r="M605" s="16" t="s">
-        <v>247</v>
+      <c r="M605" s="16">
+        <v>2.9910000000000001</v>
       </c>
       <c r="N605" s="35">
         <v>2.1</v>
@@ -37505,7 +37532,7 @@
         <v>1</v>
       </c>
       <c r="G606" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H606" s="22">
         <v>3.8</v>
@@ -37588,7 +37615,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="K607" s="34">
-        <v>223.9</v>
+        <v>22.9</v>
       </c>
       <c r="L607" s="34">
         <v>18.600000000000001</v>
@@ -37718,7 +37745,7 @@
         <v>0</v>
       </c>
       <c r="G609" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H609" s="22">
         <v>3.4</v>
@@ -37789,7 +37816,7 @@
         <v>0</v>
       </c>
       <c r="G610" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H610" s="22">
         <v>4.2</v>
@@ -37807,7 +37834,7 @@
         <v>19.3</v>
       </c>
       <c r="M610" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N610" s="35">
         <v>2.5</v>
@@ -38122,7 +38149,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I618" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J618" s="34">
         <v>0.13700000000000001</v>
@@ -38258,7 +38285,7 @@
         <v>0</v>
       </c>
       <c r="G620" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H620" s="22">
         <v>4.5999999999999996</v>
@@ -38276,7 +38303,7 @@
         <v>17.3</v>
       </c>
       <c r="M620" s="16" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N620" s="35">
         <v>2.7</v>
@@ -38400,7 +38427,7 @@
         <v>1</v>
       </c>
       <c r="G622" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H622" s="22">
         <v>1.6</v>
@@ -38471,7 +38498,7 @@
         <v>0</v>
       </c>
       <c r="G623" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H623" s="22">
         <v>3.4</v>
@@ -38613,7 +38640,7 @@
         <v>1</v>
       </c>
       <c r="G625" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H625" s="22">
         <v>0.3</v>
@@ -38684,7 +38711,7 @@
         <v>0</v>
       </c>
       <c r="G626" s="22">
-        <v>2.9449999999999998</v>
+        <v>2.9950000000000001</v>
       </c>
       <c r="H626" s="22">
         <v>0</v>
@@ -38755,7 +38782,7 @@
         <v>0</v>
       </c>
       <c r="G627" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H627" s="22">
         <v>7.2</v>
@@ -38773,7 +38800,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="M627" s="16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N627" s="35">
         <v>2.7</v>
@@ -39160,13 +39187,13 @@
         <v>0</v>
       </c>
       <c r="G634" s="22">
-        <v>2.4249999999999998</v>
+        <v>5.4249999999999998</v>
       </c>
       <c r="H634" s="22">
         <v>3.4</v>
       </c>
       <c r="I634" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J634" s="34">
         <v>0.13</v>
@@ -39379,7 +39406,7 @@
         <v>1.6</v>
       </c>
       <c r="I637" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J637" s="34">
         <v>0.10100000000000001</v>
@@ -39869,7 +39896,7 @@
         <v>38</v>
       </c>
       <c r="P647" s="15" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q647" s="11" t="s">
         <v>129</v>
@@ -39913,7 +39940,7 @@
         <v>0</v>
       </c>
       <c r="G648" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H648" s="22">
         <v>4.3</v>
@@ -40132,7 +40159,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="I651" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J651" s="34">
         <v>0.121</v>
@@ -40925,7 +40952,7 @@
         <v>1</v>
       </c>
       <c r="T663" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="U663" s="34">
         <v>8</v>
@@ -41241,7 +41268,7 @@
         <v>1</v>
       </c>
       <c r="G668" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H668" s="22">
         <v>2.2999999999999998</v>
@@ -41752,7 +41779,7 @@
         <v>1</v>
       </c>
       <c r="T678" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="U678" s="34">
         <v>4</v>
@@ -41784,7 +41811,7 @@
         <v>0</v>
       </c>
       <c r="G679" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H679" s="22">
         <v>2.5</v>
@@ -41823,7 +41850,7 @@
         <v>1</v>
       </c>
       <c r="T679" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="U679" s="34">
         <v>15</v>
@@ -41926,7 +41953,7 @@
         <v>0</v>
       </c>
       <c r="G681" s="11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H681" s="22">
         <v>3.2</v>
@@ -41944,7 +41971,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="M681" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N681" s="35">
         <v>2.7</v>
@@ -42365,7 +42392,7 @@
         <v>4.3</v>
       </c>
       <c r="I689" s="11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J689" s="34">
         <v>0.17499999999999999</v>
@@ -42407,7 +42434,7 @@
         <v>150</v>
       </c>
       <c r="W689" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="690" spans="1:23">
@@ -42430,7 +42457,7 @@
         <v>0</v>
       </c>
       <c r="G690" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H690" s="22">
         <v>0.3</v>
@@ -42501,13 +42528,13 @@
         <v>0</v>
       </c>
       <c r="G691" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H691" s="22">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="I691" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J691" s="34">
         <v>0.28699999999999998</v>
@@ -42572,7 +42599,7 @@
         <v>0</v>
       </c>
       <c r="G692" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H692" s="22">
         <v>3.1</v>
@@ -42714,7 +42741,7 @@
         <v>0</v>
       </c>
       <c r="G694" s="11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H694" s="22">
         <v>3.6</v>
@@ -42856,7 +42883,7 @@
         <v>1</v>
       </c>
       <c r="G696" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H696" s="22">
         <v>2.7</v>
@@ -43254,7 +43281,7 @@
         <v>1</v>
       </c>
       <c r="G705" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H705" s="22">
         <v>3.5</v>
@@ -43343,7 +43370,7 @@
         <v>18.5</v>
       </c>
       <c r="M706" s="34">
-        <v>32592</v>
+        <v>3.5289999999999999</v>
       </c>
       <c r="N706" s="35">
         <v>2.9</v>
@@ -43396,7 +43423,7 @@
         <v>1</v>
       </c>
       <c r="G707" s="11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H707" s="22">
         <v>4.4000000000000004</v>
@@ -43467,7 +43494,7 @@
         <v>1</v>
       </c>
       <c r="G708" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H708" s="22">
         <v>3.7</v>
@@ -43538,7 +43565,7 @@
         <v>0</v>
       </c>
       <c r="G709" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H709" s="22">
         <v>5.6</v>
@@ -43870,7 +43897,7 @@
         <v>150</v>
       </c>
       <c r="W713" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="714" spans="1:23">
@@ -43893,7 +43920,7 @@
         <v>0</v>
       </c>
       <c r="G714" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H714" s="22">
         <v>1.6</v>
@@ -44582,13 +44609,13 @@
         <v>2</v>
       </c>
       <c r="G725" s="11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H725" s="22">
         <v>4.2</v>
       </c>
       <c r="I725" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J725" s="34">
         <v>0.106</v>
@@ -44600,7 +44627,7 @@
         <v>19.3</v>
       </c>
       <c r="M725" s="34">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="N725" s="35">
         <v>2.8</v>
@@ -44980,7 +45007,7 @@
         <v>0</v>
       </c>
       <c r="G734" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H734" s="22">
         <v>6.3</v>
@@ -45051,7 +45078,7 @@
         <v>0</v>
       </c>
       <c r="G735" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H735" s="22">
         <v>3.8</v>
@@ -45199,7 +45226,7 @@
         <v>11.4</v>
       </c>
       <c r="I737" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J737" s="34">
         <v>0.21199999999999999</v>
@@ -45264,7 +45291,7 @@
         <v>1</v>
       </c>
       <c r="G738" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H738" s="22">
         <v>3.7</v>
@@ -45282,7 +45309,7 @@
         <v>20</v>
       </c>
       <c r="M738" s="16" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="N738" s="35">
         <v>3.1</v>
@@ -45335,7 +45362,7 @@
         <v>0</v>
       </c>
       <c r="G739" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H739" s="22">
         <v>4.9000000000000004</v>
@@ -45353,7 +45380,7 @@
         <v>12.9</v>
       </c>
       <c r="M739" s="16" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N739" s="35">
         <v>2.2000000000000002</v>
@@ -45406,7 +45433,7 @@
         <v>0</v>
       </c>
       <c r="G740" s="11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H740" s="22">
         <v>4.4000000000000004</v>
@@ -45548,7 +45575,7 @@
         <v>0</v>
       </c>
       <c r="G742" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H742" s="22">
         <v>0.5</v>
@@ -47061,7 +47088,7 @@
         <v>1</v>
       </c>
       <c r="G768" s="11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H768" s="22">
         <v>3.6</v>
@@ -47073,13 +47100,13 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="K768" s="16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L768" s="16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M768" s="16" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N768" s="35">
         <v>2.4</v>
@@ -47100,7 +47127,7 @@
         <v>2</v>
       </c>
       <c r="T768" s="16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="U768" s="34">
         <v>21</v>
@@ -47132,7 +47159,7 @@
         <v>0</v>
       </c>
       <c r="G769" s="22">
-        <v>6.81</v>
+        <v>3.81</v>
       </c>
       <c r="H769" s="22">
         <v>2.2999999999999998</v>
@@ -47162,10 +47189,10 @@
         <v>24</v>
       </c>
       <c r="Q769" s="11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="R769" s="11" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S769" s="34">
         <v>1</v>
@@ -47251,7 +47278,7 @@
         <v>151</v>
       </c>
       <c r="W770" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="771" spans="1:23">
@@ -47274,7 +47301,7 @@
         <v>1</v>
       </c>
       <c r="G771" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H771" s="22">
         <v>1.3</v>
@@ -47366,7 +47393,7 @@
         <v>2.1640000000000001</v>
       </c>
       <c r="N772" s="35">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O772" s="15" t="s">
         <v>38</v>
@@ -47484,7 +47511,7 @@
         <v>15.7</v>
       </c>
       <c r="M775" s="34">
-        <v>11.801</v>
+        <v>1.8009999999999999</v>
       </c>
       <c r="N775" s="35">
         <v>2.2000000000000002</v>
@@ -47614,7 +47641,7 @@
         <v>7.4</v>
       </c>
       <c r="I777" s="11" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J777" s="34">
         <v>0.23899999999999999</v>
@@ -47750,7 +47777,7 @@
         <v>0</v>
       </c>
       <c r="G779" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H779" s="22">
         <v>6.5</v>
@@ -47765,7 +47792,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="L779" s="16" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M779" s="34">
         <v>2.036</v>
@@ -47821,7 +47848,7 @@
         <v>1</v>
       </c>
       <c r="G780" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H780" s="22">
         <v>2.7</v>
@@ -47963,7 +47990,7 @@
         <v>0</v>
       </c>
       <c r="G782" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H782" s="22">
         <v>5.4</v>
@@ -48034,7 +48061,7 @@
         <v>0</v>
       </c>
       <c r="G783" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H783" s="22">
         <v>2.5</v>
